--- a/HyperTuningComparision.xlsx
+++ b/HyperTuningComparision.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FB4B40-94BF-4720-A68D-B882E30457F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Hyper Tuning</t>
+  </si>
+  <si>
+    <t>R2 Score</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>rbf</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>c=100</t>
+  </si>
+  <si>
+    <t>c=500</t>
+  </si>
+  <si>
+    <t>c=1000</t>
+  </si>
+  <si>
+    <t>c=2000</t>
+  </si>
+  <si>
+    <t>c=3000</t>
+  </si>
+  <si>
+    <t>without C</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +73,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +109,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +427,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.10646819600577299</v>
+      </c>
+      <c r="D3" s="6">
+        <v>-5.0726022781287503E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-1.9802139315272301E-2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-3.0453514864309202E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.592897727114574</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-2.4323348197438501E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.114684807426576</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7.0572144896739103E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.78028398821541201</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.7683444800727896E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.26616370931646899</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.18506861974160799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.87677216877160202</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.7515542705530104E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.48100281556065599</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.39706528684272102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.89567446943349105</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.123227566202275</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.63700642237540295</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.59136302094260995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-5.5691570455044401E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>-5.74183939162198E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-5.7103875149221398E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-5.7209358534722803E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>